--- a/MedicalLink/Templates/BC_BenhNhanThieuTienTamUng.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanThieuTienTamUng.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -248,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,6 +332,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,8 +671,15 @@
     <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="E2" s="11"/>
       <c r="F2" s="28" t="s">
